--- a/Employee_Reports35/Julius Kateregga Q0523.xlsx
+++ b/Employee_Reports35/Julius Kateregga Q0523.xlsx
@@ -81,10 +81,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
@@ -469,7 +469,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -543,7 +543,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
+          <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -551,65 +551,28 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>01-Aug-2024</t>
+          <t>06-Jul-2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>01-Aug-2025</t>
+          <t>06-Jul-2027</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-94</v>
+        <v>609</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>NOT VALID</t>
+          <t>VALID</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>06-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>06-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>610</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -683,110 +646,110 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Stacker Crane</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>01-Nov-2023</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>78.70%</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Approved Score. date is valid</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n"/>
+      <c r="G3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ews Eq </t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>01-Nov-2023</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>78.00%</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Approved Score. date is valid</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Truck Dock</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>80.70%</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr"/>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>79.13%</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="n"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Julius Kateregga Q0523.xlsx
+++ b/Employee_Reports35/Julius Kateregga Q0523.xlsx
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
